--- a/project-files/Sitemap and Info Architecture.xlsx
+++ b/project-files/Sitemap and Info Architecture.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16780" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sitemap" sheetId="1" r:id="rId1"/>
-    <sheet name="Information Architecture" sheetId="2" r:id="rId2"/>
-    <sheet name="Journey Map" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
+    <sheet name="Information Architecture" sheetId="2" r:id="rId3"/>
+    <sheet name="Journey Map" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Project Page" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>Home page</t>
   </si>
@@ -95,14 +98,122 @@
     <t>Mail user</t>
   </si>
   <si>
-    <t>contains timeline</t>
+    <t>synopsis</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>link to references</t>
+  </si>
+  <si>
+    <t>index images or assets</t>
+  </si>
+  <si>
+    <t>Project Answers</t>
+  </si>
+  <si>
+    <t>Student Pages</t>
+  </si>
+  <si>
+    <t>Main Navigation</t>
+  </si>
+  <si>
+    <t>Top Navigation</t>
+  </si>
+  <si>
+    <t>Outline</t>
+  </si>
+  <si>
+    <t>sitemap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 3 </t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>links to student pages</t>
+  </si>
+  <si>
+    <t>shtml</t>
+  </si>
+  <si>
+    <t>homepage.shtml</t>
+  </si>
+  <si>
+    <t>header.inc</t>
+  </si>
+  <si>
+    <t>footer.inc</t>
+  </si>
+  <si>
+    <t>week1.shtml</t>
+  </si>
+  <si>
+    <t>week2.shtml</t>
+  </si>
+  <si>
+    <t>week3.shtml</t>
+  </si>
+  <si>
+    <t>project.shtml</t>
+  </si>
+  <si>
+    <t>about.shtml</t>
+  </si>
+  <si>
+    <t>student.shtml</t>
+  </si>
+  <si>
+    <t>(tumblr)</t>
+  </si>
+  <si>
+    <t>outline.shtml</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>javascript</t>
+  </si>
+  <si>
+    <t>Project Page</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Sublinks</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Projects goals</t>
+  </si>
+  <si>
+    <t>etc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,16 +237,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -159,12 +289,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -178,6 +304,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -190,18 +329,140 @@
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -209,19 +470,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:F21"/>
+  <dimension ref="C3:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -562,70 +855,234 @@
     <col min="5" max="5" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:6">
+    <row r="3" spans="3:11">
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11">
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="8" spans="3:11">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="3:11">
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11">
       <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6">
+        <v>31</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="3:11">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="3:11">
       <c r="C12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6">
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
         <v>20</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11">
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11">
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11">
+      <c r="E16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="3:5">
       <c r="E17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" t="s">
         <v>19</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
-      <c r="E20" t="s">
+    <row r="26" spans="3:5">
+      <c r="E26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="E21" t="s">
+    <row r="27" spans="3:5">
+      <c r="E27" t="s">
         <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="D14" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -638,11 +1095,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
@@ -655,12 +1114,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:D13"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -723,4 +1182,402 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E2:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="5:9">
+      <c r="H2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9">
+      <c r="E5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:I38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:9">
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9">
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="3:9">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="3:9">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="13"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="13"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="13"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="13"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="13"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" s="13"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="13"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="13"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="13"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="13"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="13"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="13"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="13"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="13"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="13"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" s="13"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26" s="13"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27" s="13"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="3:9">
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="3:9">
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="15"/>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="3:9">
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>